--- a/TestData/User.xlsx
+++ b/TestData/User.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,15 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>admin123</t>
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Passowrd</t>
+  </si>
+  <si>
+    <t>Admin2</t>
   </si>
 </sst>
 </file>
@@ -43,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,20 +361,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -366,7 +385,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
